--- a/test.xlsx
+++ b/test.xlsx
@@ -459,10 +459,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-13.96502817399172</v>
+        <v>-13.96502817399175</v>
       </c>
       <c r="C2" t="n">
-        <v>-34.52939106120954</v>
+        <v>-34.52939106120951</v>
       </c>
     </row>
     <row r="3">
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.50756404683515</v>
+        <v>42.50756404683516</v>
       </c>
       <c r="C3" t="n">
-        <v>-10.32409892358783</v>
+        <v>-10.32409892358787</v>
       </c>
     </row>
     <row r="4">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-21.23005343907707</v>
+        <v>-21.23005343907702</v>
       </c>
       <c r="C4" t="n">
         <v>27.88038827040574</v>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-19.38255067278676</v>
+        <v>-19.38255067278675</v>
       </c>
       <c r="C5" t="n">
         <v>-10.92703965751726</v>
@@ -511,10 +511,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12.07006823902035</v>
+        <v>12.07006823902038</v>
       </c>
       <c r="C6" t="n">
-        <v>27.90014137190891</v>
+        <v>27.90014137190889</v>
       </c>
     </row>
   </sheetData>
@@ -555,10 +555,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.829895762285778</v>
+        <v>3.829895762285776</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.716798353881754</v>
+        <v>-1.716798353881755</v>
       </c>
     </row>
     <row r="3">
@@ -568,10 +568,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.890549739909375</v>
+        <v>5.890549739909373</v>
       </c>
       <c r="C3" t="n">
-        <v>-7.581497646353677</v>
+        <v>-7.581497646353685</v>
       </c>
     </row>
     <row r="4">
@@ -581,10 +581,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.36863399419793</v>
+        <v>18.36863399419794</v>
       </c>
       <c r="C4" t="n">
-        <v>10.96278317820266</v>
+        <v>10.96278317820265</v>
       </c>
     </row>
     <row r="5">
@@ -594,10 +594,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2.263118674921836</v>
+        <v>-2.263118674921826</v>
       </c>
       <c r="C5" t="n">
-        <v>15.50211926203834</v>
+        <v>15.50211926203835</v>
       </c>
     </row>
     <row r="6">
@@ -610,7 +610,7 @@
         <v>-14.80406799480917</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.696820441102945</v>
+        <v>-3.696820441102939</v>
       </c>
     </row>
     <row r="7">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.088168839863102</v>
+        <v>-7.088168839863092</v>
       </c>
       <c r="C7" t="n">
         <v>15.92074164468759</v>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.265885504395045</v>
+        <v>1.265885504395049</v>
       </c>
       <c r="C8" t="n">
-        <v>9.053781435324851</v>
+        <v>9.053781435324856</v>
       </c>
     </row>
     <row r="9">
@@ -646,10 +646,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.785248707215874</v>
+        <v>1.785248707215882</v>
       </c>
       <c r="C9" t="n">
-        <v>4.848750398835026</v>
+        <v>4.848750398835021</v>
       </c>
     </row>
     <row r="10">
@@ -659,10 +659,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-6.399871192103956</v>
+        <v>-6.399871192103967</v>
       </c>
       <c r="C10" t="n">
-        <v>1.39256381366638</v>
+        <v>1.392563813666399</v>
       </c>
     </row>
     <row r="11">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.34956083611635</v>
+        <v>9.349560836116337</v>
       </c>
       <c r="C11" t="n">
         <v>-18.15717438830644</v>
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-4.453203355074917</v>
+        <v>-4.45320335507493</v>
       </c>
       <c r="C12" t="n">
         <v>-14.81040424432554</v>
@@ -698,10 +698,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.63256791925503</v>
+        <v>15.63256791925502</v>
       </c>
       <c r="C13" t="n">
-        <v>-9.910676507107446</v>
+        <v>-9.910676507107457</v>
       </c>
     </row>
     <row r="14">
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5929714924755382</v>
+        <v>0.5929714924755312</v>
       </c>
       <c r="C14" t="n">
         <v>-7.072516658702885</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.58806258824138</v>
+        <v>2.588062588241391</v>
       </c>
       <c r="C15" t="n">
-        <v>2.151073014252538</v>
+        <v>2.151073014252528</v>
       </c>
     </row>
     <row r="16">
@@ -740,7 +740,7 @@
         <v>1.210666471078729</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.02792560584626</v>
+        <v>-1.027925605846261</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.760956174519659</v>
+        <v>8.760956174519658</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1143041020951128</v>
+        <v>-0.1143041020951141</v>
       </c>
     </row>
     <row r="18">
@@ -766,7 +766,7 @@
         <v>22.39985595997884</v>
       </c>
       <c r="C18" t="n">
-        <v>-5.277304715255092</v>
+        <v>-5.277304715255104</v>
       </c>
     </row>
     <row r="19">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-9.077590751697644</v>
+        <v>-9.077590751697649</v>
       </c>
       <c r="C19" t="n">
         <v>-14.29727580081657</v>
@@ -789,10 +789,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11.40343799926468</v>
+        <v>11.40343799926469</v>
       </c>
       <c r="C20" t="n">
-        <v>13.61805679292376</v>
+        <v>13.61805679292375</v>
       </c>
     </row>
     <row r="21">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-1.093456372949315</v>
+        <v>-1.093456372949317</v>
       </c>
       <c r="C21" t="n">
-        <v>-2.474838549062344</v>
+        <v>-2.474838549062343</v>
       </c>
     </row>
     <row r="22">
@@ -818,7 +818,7 @@
         <v>-7.5363197301814</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.9643967271275707</v>
+        <v>-0.9643967271275701</v>
       </c>
     </row>
     <row r="23">
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-14.37079379659965</v>
+        <v>-14.37079379659964</v>
       </c>
       <c r="C23" t="n">
-        <v>14.11668302786321</v>
+        <v>14.11668302786322</v>
       </c>
     </row>
     <row r="24">
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.256694545857955</v>
+        <v>7.256694545857966</v>
       </c>
       <c r="C24" t="n">
         <v>16.89492157182995</v>
@@ -854,10 +854,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-3.784129617756852</v>
+        <v>-3.784129617756857</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.3591928740370952</v>
+        <v>-0.3591928740370912</v>
       </c>
     </row>
     <row r="26">
@@ -867,10 +867,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9.84936475584956</v>
+        <v>9.849364755849566</v>
       </c>
       <c r="C26" t="n">
-        <v>-4.980953867716117</v>
+        <v>-4.98095386771613</v>
       </c>
     </row>
     <row r="27">
@@ -880,10 +880,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-17.41860919448114</v>
+        <v>-17.41860919448115</v>
       </c>
       <c r="C27" t="n">
-        <v>-6.35807165472858</v>
+        <v>-6.358071654728571</v>
       </c>
     </row>
     <row r="28">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-8.778360092693957</v>
+        <v>-8.778360092693948</v>
       </c>
       <c r="C28" t="n">
         <v>13.29862630360037</v>
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-2.2510966027541</v>
+        <v>-2.251096602754107</v>
       </c>
       <c r="C29" t="n">
-        <v>-5.867000374675565</v>
+        <v>-5.867000374675556</v>
       </c>
     </row>
     <row r="30">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-4.260206450254389</v>
+        <v>-4.2602064502544</v>
       </c>
       <c r="C30" t="n">
-        <v>-9.767103438700756</v>
+        <v>-9.767103438700751</v>
       </c>
     </row>
     <row r="31">
@@ -932,10 +932,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-11.60443820374311</v>
+        <v>-11.60443820374312</v>
       </c>
       <c r="C31" t="n">
-        <v>-10.91066832299302</v>
+        <v>-10.91066832299301</v>
       </c>
     </row>
     <row r="32">
@@ -945,10 +945,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.07542555879974032</v>
+        <v>-0.0754255587997455</v>
       </c>
       <c r="C32" t="n">
-        <v>-3.304238584672731</v>
+        <v>-3.304238584672729</v>
       </c>
     </row>
     <row r="33">
@@ -958,10 +958,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-8.272973520344728</v>
+        <v>-8.272973520344731</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2391196374057749</v>
+        <v>0.2391196374057813</v>
       </c>
     </row>
     <row r="34">
@@ -971,10 +971,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.261689754309202</v>
+        <v>2.26168975430921</v>
       </c>
       <c r="C34" t="n">
-        <v>6.104764870184656</v>
+        <v>6.104764870184652</v>
       </c>
     </row>
     <row r="35">
@@ -984,10 +984,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8.686570053607774</v>
+        <v>8.686570053607772</v>
       </c>
       <c r="C35" t="n">
-        <v>-5.171002041782541</v>
+        <v>-5.171002041782549</v>
       </c>
     </row>
   </sheetData>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.09304594075509277</v>
+        <v>0.0930459407550928</v>
       </c>
     </row>
     <row r="3">
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07807640644305326</v>
+        <v>0.07807640644305328</v>
       </c>
     </row>
     <row r="4">
@@ -1037,7 +1037,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0374991844212501</v>
+        <v>0.03749918442125011</v>
       </c>
     </row>
     <row r="5">
@@ -1053,7 +1053,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.010438858497139e-33</v>
+        <v>4.237528331521658e-33</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -459,10 +459,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-13.96502817399175</v>
+        <v>-13.96502817399172</v>
       </c>
       <c r="C2" t="n">
-        <v>-34.52939106120951</v>
+        <v>-34.52939106120954</v>
       </c>
     </row>
     <row r="3">
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.50756404683516</v>
+        <v>42.50756404683515</v>
       </c>
       <c r="C3" t="n">
-        <v>-10.32409892358787</v>
+        <v>-10.32409892358783</v>
       </c>
     </row>
     <row r="4">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-21.23005343907702</v>
+        <v>-21.23005343907707</v>
       </c>
       <c r="C4" t="n">
         <v>27.88038827040574</v>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-19.38255067278675</v>
+        <v>-19.38255067278676</v>
       </c>
       <c r="C5" t="n">
         <v>-10.92703965751726</v>
@@ -511,10 +511,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12.07006823902038</v>
+        <v>12.07006823902035</v>
       </c>
       <c r="C6" t="n">
-        <v>27.90014137190889</v>
+        <v>27.90014137190891</v>
       </c>
     </row>
   </sheetData>
@@ -555,10 +555,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.829895762285776</v>
+        <v>3.829895762285778</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.716798353881755</v>
+        <v>-1.716798353881754</v>
       </c>
     </row>
     <row r="3">
@@ -568,10 +568,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.890549739909373</v>
+        <v>5.890549739909375</v>
       </c>
       <c r="C3" t="n">
-        <v>-7.581497646353685</v>
+        <v>-7.581497646353677</v>
       </c>
     </row>
     <row r="4">
@@ -581,10 +581,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.36863399419794</v>
+        <v>18.36863399419793</v>
       </c>
       <c r="C4" t="n">
-        <v>10.96278317820265</v>
+        <v>10.96278317820266</v>
       </c>
     </row>
     <row r="5">
@@ -594,10 +594,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2.263118674921826</v>
+        <v>-2.263118674921836</v>
       </c>
       <c r="C5" t="n">
-        <v>15.50211926203835</v>
+        <v>15.50211926203834</v>
       </c>
     </row>
     <row r="6">
@@ -610,7 +610,7 @@
         <v>-14.80406799480917</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.696820441102939</v>
+        <v>-3.696820441102945</v>
       </c>
     </row>
     <row r="7">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.088168839863092</v>
+        <v>-7.088168839863102</v>
       </c>
       <c r="C7" t="n">
         <v>15.92074164468759</v>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.265885504395049</v>
+        <v>1.265885504395045</v>
       </c>
       <c r="C8" t="n">
-        <v>9.053781435324856</v>
+        <v>9.053781435324851</v>
       </c>
     </row>
     <row r="9">
@@ -646,10 +646,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.785248707215882</v>
+        <v>1.785248707215874</v>
       </c>
       <c r="C9" t="n">
-        <v>4.848750398835021</v>
+        <v>4.848750398835026</v>
       </c>
     </row>
     <row r="10">
@@ -659,10 +659,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-6.399871192103967</v>
+        <v>-6.399871192103956</v>
       </c>
       <c r="C10" t="n">
-        <v>1.392563813666399</v>
+        <v>1.39256381366638</v>
       </c>
     </row>
     <row r="11">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.349560836116337</v>
+        <v>9.34956083611635</v>
       </c>
       <c r="C11" t="n">
         <v>-18.15717438830644</v>
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-4.45320335507493</v>
+        <v>-4.453203355074917</v>
       </c>
       <c r="C12" t="n">
         <v>-14.81040424432554</v>
@@ -698,10 +698,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.63256791925502</v>
+        <v>15.63256791925503</v>
       </c>
       <c r="C13" t="n">
-        <v>-9.910676507107457</v>
+        <v>-9.910676507107446</v>
       </c>
     </row>
     <row r="14">
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5929714924755312</v>
+        <v>0.5929714924755382</v>
       </c>
       <c r="C14" t="n">
         <v>-7.072516658702885</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.588062588241391</v>
+        <v>2.58806258824138</v>
       </c>
       <c r="C15" t="n">
-        <v>2.151073014252528</v>
+        <v>2.151073014252538</v>
       </c>
     </row>
     <row r="16">
@@ -740,7 +740,7 @@
         <v>1.210666471078729</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.027925605846261</v>
+        <v>-1.02792560584626</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.760956174519658</v>
+        <v>8.760956174519659</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1143041020951141</v>
+        <v>-0.1143041020951128</v>
       </c>
     </row>
     <row r="18">
@@ -766,7 +766,7 @@
         <v>22.39985595997884</v>
       </c>
       <c r="C18" t="n">
-        <v>-5.277304715255104</v>
+        <v>-5.277304715255092</v>
       </c>
     </row>
     <row r="19">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-9.077590751697649</v>
+        <v>-9.077590751697644</v>
       </c>
       <c r="C19" t="n">
         <v>-14.29727580081657</v>
@@ -789,10 +789,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11.40343799926469</v>
+        <v>11.40343799926468</v>
       </c>
       <c r="C20" t="n">
-        <v>13.61805679292375</v>
+        <v>13.61805679292376</v>
       </c>
     </row>
     <row r="21">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-1.093456372949317</v>
+        <v>-1.093456372949315</v>
       </c>
       <c r="C21" t="n">
-        <v>-2.474838549062343</v>
+        <v>-2.474838549062344</v>
       </c>
     </row>
     <row r="22">
@@ -818,7 +818,7 @@
         <v>-7.5363197301814</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.9643967271275701</v>
+        <v>-0.9643967271275707</v>
       </c>
     </row>
     <row r="23">
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-14.37079379659964</v>
+        <v>-14.37079379659965</v>
       </c>
       <c r="C23" t="n">
-        <v>14.11668302786322</v>
+        <v>14.11668302786321</v>
       </c>
     </row>
     <row r="24">
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.256694545857966</v>
+        <v>7.256694545857955</v>
       </c>
       <c r="C24" t="n">
         <v>16.89492157182995</v>
@@ -854,10 +854,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-3.784129617756857</v>
+        <v>-3.784129617756852</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.3591928740370912</v>
+        <v>-0.3591928740370952</v>
       </c>
     </row>
     <row r="26">
@@ -867,10 +867,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9.849364755849566</v>
+        <v>9.84936475584956</v>
       </c>
       <c r="C26" t="n">
-        <v>-4.98095386771613</v>
+        <v>-4.980953867716117</v>
       </c>
     </row>
     <row r="27">
@@ -880,10 +880,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-17.41860919448115</v>
+        <v>-17.41860919448114</v>
       </c>
       <c r="C27" t="n">
-        <v>-6.358071654728571</v>
+        <v>-6.35807165472858</v>
       </c>
     </row>
     <row r="28">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-8.778360092693948</v>
+        <v>-8.778360092693957</v>
       </c>
       <c r="C28" t="n">
         <v>13.29862630360037</v>
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-2.251096602754107</v>
+        <v>-2.2510966027541</v>
       </c>
       <c r="C29" t="n">
-        <v>-5.867000374675556</v>
+        <v>-5.867000374675565</v>
       </c>
     </row>
     <row r="30">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-4.2602064502544</v>
+        <v>-4.260206450254389</v>
       </c>
       <c r="C30" t="n">
-        <v>-9.767103438700751</v>
+        <v>-9.767103438700756</v>
       </c>
     </row>
     <row r="31">
@@ -932,10 +932,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-11.60443820374312</v>
+        <v>-11.60443820374311</v>
       </c>
       <c r="C31" t="n">
-        <v>-10.91066832299301</v>
+        <v>-10.91066832299302</v>
       </c>
     </row>
     <row r="32">
@@ -945,10 +945,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.0754255587997455</v>
+        <v>-0.07542555879974032</v>
       </c>
       <c r="C32" t="n">
-        <v>-3.304238584672729</v>
+        <v>-3.304238584672731</v>
       </c>
     </row>
     <row r="33">
@@ -958,10 +958,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-8.272973520344731</v>
+        <v>-8.272973520344728</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2391196374057813</v>
+        <v>0.2391196374057749</v>
       </c>
     </row>
     <row r="34">
@@ -971,10 +971,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.26168975430921</v>
+        <v>2.261689754309202</v>
       </c>
       <c r="C34" t="n">
-        <v>6.104764870184652</v>
+        <v>6.104764870184656</v>
       </c>
     </row>
     <row r="35">
@@ -984,10 +984,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8.686570053607772</v>
+        <v>8.686570053607774</v>
       </c>
       <c r="C35" t="n">
-        <v>-5.171002041782549</v>
+        <v>-5.171002041782541</v>
       </c>
     </row>
   </sheetData>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0930459407550928</v>
+        <v>0.09304594075509277</v>
       </c>
     </row>
     <row r="3">
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07807640644305328</v>
+        <v>0.07807640644305326</v>
       </c>
     </row>
     <row r="4">
@@ -1037,7 +1037,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03749918442125011</v>
+        <v>0.0374991844212501</v>
       </c>
     </row>
     <row r="5">
@@ -1053,7 +1053,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.237528331521658e-33</v>
+        <v>5.010438858497139e-33</v>
       </c>
     </row>
   </sheetData>
